--- a/documents/受付画面/新規画面資料/受付画面_データ生成イメージ.xlsx
+++ b/documents/受付画面/新規画面資料/受付画面_データ生成イメージ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17610" windowHeight="10620"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="データイメージ" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="55">
   <si>
     <t>※WPSスプレッドシートで作成しています。印刷範囲の設定に失敗していたらごめんなさい。</t>
   </si>
@@ -122,16 +122,13 @@
     <t>利用開始</t>
   </si>
   <si>
-    <t>AAAAA</t>
+    <t>Seat101</t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
     <t>C00001</t>
-  </si>
-  <si>
-    <t>Seat101</t>
   </si>
   <si>
     <t>↓延長</t>
@@ -164,13 +161,13 @@
     <t>座席移動</t>
   </si>
   <si>
-    <t>D00001</t>
-  </si>
-  <si>
     <t>Seat102</t>
   </si>
   <si>
     <t>102</t>
+  </si>
+  <si>
+    <t>D00001</t>
   </si>
   <si>
     <t>B00005</t>
@@ -192,9 +189,9 @@
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -210,6 +207,20 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,7 +241,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -238,59 +249,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -300,29 +259,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,31 +280,86 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -408,13 +399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,19 +423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,25 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,19 +453,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +489,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +520,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,19 +561,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,6 +671,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -690,6 +696,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,32 +735,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -760,165 +751,165 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -927,10 +918,40 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
@@ -948,66 +969,30 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1017,30 +1002,51 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1056,67 +1062,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
@@ -1209,7 +1182,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="475615" y="2086610"/>
-          <a:ext cx="23530560" cy="1496060"/>
+          <a:ext cx="13262610" cy="1496060"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1280,7 +1253,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="554990" y="4469130"/>
-          <a:ext cx="23483570" cy="1475105"/>
+          <a:ext cx="13215620" cy="1475105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1450,7 +1423,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="509905" y="6605905"/>
-          <a:ext cx="23461345" cy="1656080"/>
+          <a:ext cx="13193395" cy="1656080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1620,7 +1593,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="487045" y="8982710"/>
-          <a:ext cx="23416895" cy="1841500"/>
+          <a:ext cx="13148945" cy="1841500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1790,7 +1763,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="498475" y="11579225"/>
-          <a:ext cx="23416260" cy="1786890"/>
+          <a:ext cx="13148310" cy="1786890"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1960,7 +1933,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="509905" y="14195425"/>
-          <a:ext cx="23416260" cy="2174240"/>
+          <a:ext cx="13148310" cy="2174240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2424,8 +2397,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12383770" y="16208375"/>
-          <a:ext cx="4302760" cy="1348105"/>
+          <a:off x="13572490" y="16208375"/>
+          <a:ext cx="0" cy="1348105"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2611,8 +2584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18202275" y="16047720"/>
-          <a:ext cx="3283585" cy="1348105"/>
+          <a:off x="13572490" y="16047720"/>
+          <a:ext cx="0" cy="1348105"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -3160,23 +3133,24 @@
     <col min="14" max="14" width="12.6416666666667" customWidth="1"/>
     <col min="15" max="15" width="9.625" customWidth="1"/>
     <col min="16" max="16" width="18.375" customWidth="1"/>
-    <col min="17" max="17" width="7.875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="8.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="2.5" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="1.875" customWidth="1"/>
-    <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="22" width="16.375" customWidth="1"/>
-    <col min="23" max="23" width="12.5" customWidth="1"/>
-    <col min="24" max="24" width="8.875" customWidth="1"/>
-    <col min="25" max="25" width="2.375" customWidth="1"/>
-    <col min="26" max="26" width="1.875" customWidth="1"/>
-    <col min="27" max="27" width="8.375" customWidth="1"/>
-    <col min="28" max="28" width="16.375" customWidth="1"/>
-    <col min="29" max="29" width="23.875" customWidth="1"/>
-    <col min="30" max="30" width="18.125" customWidth="1"/>
-    <col min="31" max="31" width="13.375" customWidth="1"/>
-    <col min="32" max="32" width="17.25" customWidth="1"/>
-    <col min="33" max="16334" width="4.625" customWidth="1"/>
+    <col min="17" max="17" width="7.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5" customWidth="1"/>
+    <col min="20" max="20" width="1.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="16.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="8.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="2.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="1.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="8.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="16.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="23.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="18.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="13.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="4.625" customWidth="1" collapsed="1"/>
+    <col min="34" max="16334" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3241,20 +3215,22 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
       <c r="U16" s="20" t="s">
         <v>12</v>
       </c>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
-      <c r="AA16" s="30" t="s">
+      <c r="AA16" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
     </row>
     <row r="17" spans="4:32">
       <c r="D17" s="3"/>
@@ -3268,18 +3244,18 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
     </row>
     <row r="18" spans="4:32">
       <c r="D18" s="4" t="s">
@@ -3315,40 +3291,40 @@
       <c r="P18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q18" s="24" t="s">
+      <c r="Q18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="R18" s="24" t="s">
+      <c r="R18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U18" s="25" t="s">
+      <c r="U18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="V18" s="26" t="s">
+      <c r="V18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="W18" s="26" t="s">
+      <c r="W18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="X18" s="26" t="s">
+      <c r="X18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AA18" s="33" t="s">
+      <c r="AA18" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AB18" s="34" t="s">
+      <c r="AB18" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AC18" s="34" t="s">
+      <c r="AC18" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AD18" s="34" t="s">
+      <c r="AD18" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AE18" s="34" t="s">
+      <c r="AE18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AF18" s="34" t="s">
+      <c r="AF18" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3366,7 +3342,7 @@
         <v>45705.5416666667</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="66" t="str">
+      <c r="H19" s="61" t="str">
         <f>X19</f>
         <v>101</v>
       </c>
@@ -3393,10 +3369,10 @@
       <c r="P19" s="15">
         <v>45705.5416666667</v>
       </c>
-      <c r="Q19" s="27" t="s">
+      <c r="Q19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="67" t="s">
+      <c r="R19" s="62" t="s">
         <v>36</v>
       </c>
       <c r="T19" s="5" t="s">
@@ -3410,15 +3386,15 @@
         <v>B00001</v>
       </c>
       <c r="W19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="X19" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="X19" s="62" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="4:32">
@@ -3437,20 +3413,22 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
       <c r="U28" s="20" t="s">
         <v>12</v>
       </c>
       <c r="V28" s="20"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
-      <c r="AA28" s="30" t="s">
+      <c r="AA28" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
     </row>
     <row r="29" spans="4:32">
       <c r="D29" s="3"/>
@@ -3464,18 +3442,18 @@
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="30"/>
     </row>
     <row r="30" spans="4:32">
       <c r="D30" s="4" t="s">
@@ -3511,40 +3489,40 @@
       <c r="P30" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q30" s="24" t="s">
+      <c r="Q30" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="R30" s="24" t="s">
+      <c r="R30" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U30" s="25" t="s">
+      <c r="U30" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="V30" s="26" t="s">
+      <c r="V30" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="W30" s="26" t="s">
+      <c r="W30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="X30" s="26" t="s">
+      <c r="X30" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AA30" s="33" t="s">
+      <c r="AA30" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AB30" s="34" t="s">
+      <c r="AB30" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AC30" s="34" t="s">
+      <c r="AC30" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AD30" s="34" t="s">
+      <c r="AD30" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AE30" s="34" t="s">
+      <c r="AE30" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AF30" s="34" t="s">
+      <c r="AF30" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3585,10 +3563,10 @@
       <c r="P31" s="7">
         <v>45705.5416666667</v>
       </c>
-      <c r="Q31" s="27" t="s">
+      <c r="Q31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R31" s="67" t="s">
+      <c r="R31" s="63" t="s">
         <v>36</v>
       </c>
       <c r="U31" s="6" t="s">
@@ -3599,81 +3577,81 @@
         <v>B00001</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="X31" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="X31" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
     </row>
     <row r="32" spans="11:32">
       <c r="K32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M32" s="6" t="str">
         <f>D31</f>
         <v>A00001</v>
       </c>
       <c r="N32" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="P32" s="15">
         <v>45705.625</v>
       </c>
-      <c r="Q32" s="27" t="s">
+      <c r="Q32" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R32" s="67" t="s">
+      <c r="R32" s="63" t="s">
         <v>36</v>
       </c>
       <c r="T32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="U32" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V32" s="6" t="str">
         <f>L32</f>
         <v>B00002</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="X32" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="X32" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
-      <c r="AF32" s="35"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="33"/>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="33"/>
     </row>
     <row r="33" spans="26:32">
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="33"/>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="4:32">
@@ -3692,20 +3670,22 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
       <c r="U41" s="20" t="s">
         <v>12</v>
       </c>
       <c r="V41" s="20"/>
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
-      <c r="AA41" s="30" t="s">
+      <c r="AA41" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AB41" s="30"/>
-      <c r="AC41" s="30"/>
-      <c r="AD41" s="30"/>
-      <c r="AE41" s="30"/>
-      <c r="AF41" s="30"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="28"/>
     </row>
     <row r="42" spans="4:32">
       <c r="D42" s="3"/>
@@ -3719,18 +3699,18 @@
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="32"/>
-      <c r="AE42" s="32"/>
-      <c r="AF42" s="32"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="30"/>
     </row>
     <row r="43" spans="4:32">
       <c r="D43" s="4" t="s">
@@ -3766,40 +3746,40 @@
       <c r="P43" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q43" s="24" t="s">
+      <c r="Q43" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="R43" s="24" t="s">
+      <c r="R43" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U43" s="25" t="s">
+      <c r="U43" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="V43" s="26" t="s">
+      <c r="V43" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="W43" s="26" t="s">
+      <c r="W43" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="X43" s="26" t="s">
+      <c r="X43" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AA43" s="33" t="s">
+      <c r="AA43" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AB43" s="34" t="s">
+      <c r="AB43" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AC43" s="34" t="s">
+      <c r="AC43" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AD43" s="34" t="s">
+      <c r="AD43" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AE43" s="34" t="s">
+      <c r="AE43" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AF43" s="34" t="s">
+      <c r="AF43" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3840,10 +3820,10 @@
       <c r="P44" s="7">
         <v>45705.5416666667</v>
       </c>
-      <c r="Q44" s="27" t="s">
+      <c r="Q44" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R44" s="67" t="s">
+      <c r="R44" s="63" t="s">
         <v>36</v>
       </c>
       <c r="U44" s="6" t="s">
@@ -3854,69 +3834,69 @@
         <v>B00001</v>
       </c>
       <c r="W44" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="X44" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="X44" s="63" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="12:32">
       <c r="L45" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M45" s="6" t="str">
         <f>D44</f>
         <v>A00001</v>
       </c>
       <c r="N45" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O45" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="O45" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="P45" s="18">
         <v>45705.625</v>
       </c>
-      <c r="Q45" s="27" t="s">
+      <c r="Q45" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R45" s="67" t="s">
+      <c r="R45" s="63" t="s">
         <v>36</v>
       </c>
       <c r="U45" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V45" s="6" t="str">
         <f>L45</f>
         <v>B00002</v>
       </c>
       <c r="W45" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="X45" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="X45" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="Z45" s="35"/>
-      <c r="AA45" s="35"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="35"/>
-      <c r="AD45" s="35"/>
-      <c r="AE45" s="35"/>
-      <c r="AF45" s="35"/>
+      <c r="Z45" s="33"/>
+      <c r="AA45" s="33"/>
+      <c r="AB45" s="33"/>
+      <c r="AC45" s="33"/>
+      <c r="AD45" s="33"/>
+      <c r="AE45" s="33"/>
+      <c r="AF45" s="33"/>
     </row>
     <row r="46" spans="11:32">
       <c r="K46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M46" s="6" t="str">
         <f>D44</f>
         <v>A00001</v>
       </c>
       <c r="N46" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O46" s="16" t="s">
         <v>32</v>
@@ -3924,39 +3904,39 @@
       <c r="P46" s="15">
         <v>45705.7083333333</v>
       </c>
-      <c r="Q46" s="27" t="s">
+      <c r="Q46" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R46" s="67" t="s">
+      <c r="R46" s="63" t="s">
         <v>36</v>
       </c>
       <c r="T46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="U46" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V46" s="6" t="str">
         <f>L46</f>
         <v>B00003</v>
       </c>
       <c r="W46" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="X46" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="X46" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="Z46" s="35"/>
-      <c r="AA46" s="35"/>
-      <c r="AB46" s="35"/>
-      <c r="AC46" s="35"/>
-      <c r="AD46" s="35"/>
-      <c r="AE46" s="35"/>
-      <c r="AF46" s="35"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="33"/>
+      <c r="AB46" s="33"/>
+      <c r="AC46" s="33"/>
+      <c r="AD46" s="33"/>
+      <c r="AE46" s="33"/>
+      <c r="AF46" s="33"/>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="4:32">
@@ -3975,20 +3955,22 @@
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
       <c r="U55" s="20" t="s">
         <v>12</v>
       </c>
       <c r="V55" s="20"/>
       <c r="W55" s="20"/>
       <c r="X55" s="20"/>
-      <c r="AA55" s="30" t="s">
+      <c r="AA55" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AB55" s="30"/>
-      <c r="AC55" s="30"/>
-      <c r="AD55" s="30"/>
-      <c r="AE55" s="30"/>
-      <c r="AF55" s="30"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
+      <c r="AD55" s="28"/>
+      <c r="AE55" s="28"/>
+      <c r="AF55" s="28"/>
     </row>
     <row r="56" spans="4:32">
       <c r="D56" s="3"/>
@@ -4002,18 +3984,18 @@
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
-      <c r="X56" s="23"/>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="32"/>
-      <c r="AC56" s="32"/>
-      <c r="AD56" s="32"/>
-      <c r="AE56" s="32"/>
-      <c r="AF56" s="32"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="30"/>
+      <c r="AD56" s="30"/>
+      <c r="AE56" s="30"/>
+      <c r="AF56" s="30"/>
     </row>
     <row r="57" spans="4:32">
       <c r="D57" s="4" t="s">
@@ -4049,40 +4031,40 @@
       <c r="P57" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q57" s="24" t="s">
+      <c r="Q57" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="R57" s="24" t="s">
+      <c r="R57" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U57" s="25" t="s">
+      <c r="U57" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="V57" s="26" t="s">
+      <c r="V57" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="W57" s="26" t="s">
+      <c r="W57" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="X57" s="26" t="s">
+      <c r="X57" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AA57" s="33" t="s">
+      <c r="AA57" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AB57" s="34" t="s">
+      <c r="AB57" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AC57" s="34" t="s">
+      <c r="AC57" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AD57" s="34" t="s">
+      <c r="AD57" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AE57" s="34" t="s">
+      <c r="AE57" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AF57" s="34" t="s">
+      <c r="AF57" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4100,7 +4082,7 @@
         <v>45705.5416666667</v>
       </c>
       <c r="G58" s="8"/>
-      <c r="H58" s="66" t="str">
+      <c r="H58" s="61" t="str">
         <f>AF61</f>
         <v>102</v>
       </c>
@@ -4124,10 +4106,10 @@
       <c r="P58" s="7">
         <v>45705.5416666667</v>
       </c>
-      <c r="Q58" s="27" t="s">
+      <c r="Q58" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R58" s="67" t="s">
+      <c r="R58" s="63" t="s">
         <v>36</v>
       </c>
       <c r="U58" s="6" t="s">
@@ -4138,59 +4120,59 @@
         <v>B00001</v>
       </c>
       <c r="W58" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="X58" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="X58" s="63" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="59" spans="12:24">
       <c r="L59" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M59" s="6" t="str">
         <f>D58</f>
         <v>A00001</v>
       </c>
       <c r="N59" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O59" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="O59" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="P59" s="19">
         <v>45705.625</v>
       </c>
-      <c r="Q59" s="27" t="s">
+      <c r="Q59" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R59" s="67" t="s">
+      <c r="R59" s="63" t="s">
         <v>36</v>
       </c>
       <c r="U59" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V59" s="6" t="str">
         <f>L59</f>
         <v>B00002</v>
       </c>
       <c r="W59" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="X59" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="X59" s="63" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="60" spans="12:24">
       <c r="L60" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M60" s="6" t="str">
         <f>D58</f>
         <v>A00001</v>
       </c>
       <c r="N60" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O60" s="17" t="s">
         <v>32</v>
@@ -4198,23 +4180,23 @@
       <c r="P60" s="19">
         <v>45705.7083333333</v>
       </c>
-      <c r="Q60" s="27" t="s">
+      <c r="Q60" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R60" s="67" t="s">
+      <c r="R60" s="63" t="s">
         <v>36</v>
       </c>
       <c r="U60" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V60" s="6" t="str">
         <f>L60</f>
         <v>B00003</v>
       </c>
       <c r="W60" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="X60" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="X60" s="63" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4223,53 +4205,53 @@
         <v>5</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M61" s="6" t="str">
         <f>D58</f>
         <v>A00001</v>
       </c>
       <c r="N61" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P61" s="15">
         <v>45705.7291666667</v>
       </c>
-      <c r="Q61" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="R61" s="67" t="s">
-        <v>36</v>
+      <c r="Q61" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R61" s="64" t="s">
+        <v>49</v>
       </c>
       <c r="Z61" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AA61" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB61" s="36" t="str">
+      <c r="AA61" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB61" s="34" t="str">
         <f>L61</f>
         <v>B00004</v>
       </c>
       <c r="AC61" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD61" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD61" s="65" t="s">
         <v>36</v>
       </c>
       <c r="AE61" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF61" s="71" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="AF61" s="64" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="4:32">
@@ -4288,20 +4270,22 @@
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
       <c r="U70" s="20" t="s">
         <v>12</v>
       </c>
       <c r="V70" s="20"/>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
-      <c r="AA70" s="30" t="s">
+      <c r="AA70" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AB70" s="30"/>
-      <c r="AC70" s="30"/>
-      <c r="AD70" s="30"/>
-      <c r="AE70" s="30"/>
-      <c r="AF70" s="30"/>
+      <c r="AB70" s="28"/>
+      <c r="AC70" s="28"/>
+      <c r="AD70" s="28"/>
+      <c r="AE70" s="28"/>
+      <c r="AF70" s="28"/>
     </row>
     <row r="71" spans="4:32">
       <c r="D71" s="3"/>
@@ -4315,18 +4299,18 @@
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
       <c r="P71" s="12"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="21"/>
-      <c r="U71" s="22"/>
-      <c r="V71" s="23"/>
-      <c r="W71" s="23"/>
-      <c r="X71" s="23"/>
-      <c r="AA71" s="31"/>
-      <c r="AB71" s="32"/>
-      <c r="AC71" s="32"/>
-      <c r="AD71" s="32"/>
-      <c r="AE71" s="32"/>
-      <c r="AF71" s="32"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="22"/>
+      <c r="W71" s="22"/>
+      <c r="X71" s="22"/>
+      <c r="AA71" s="29"/>
+      <c r="AB71" s="30"/>
+      <c r="AC71" s="30"/>
+      <c r="AD71" s="30"/>
+      <c r="AE71" s="30"/>
+      <c r="AF71" s="30"/>
     </row>
     <row r="72" spans="4:32">
       <c r="D72" s="4" t="s">
@@ -4362,40 +4346,40 @@
       <c r="P72" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q72" s="24" t="s">
+      <c r="Q72" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="R72" s="24" t="s">
+      <c r="R72" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U72" s="25" t="s">
+      <c r="U72" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="V72" s="26" t="s">
+      <c r="V72" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="W72" s="26" t="s">
+      <c r="W72" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="X72" s="26" t="s">
+      <c r="X72" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AA72" s="33" t="s">
+      <c r="AA72" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AB72" s="34" t="s">
+      <c r="AB72" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AC72" s="34" t="s">
+      <c r="AC72" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AD72" s="34" t="s">
+      <c r="AD72" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AE72" s="34" t="s">
+      <c r="AE72" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AF72" s="34" t="s">
+      <c r="AF72" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4413,7 +4397,7 @@
         <v>45705.5416666667</v>
       </c>
       <c r="G73" s="8"/>
-      <c r="H73" s="72" t="str">
+      <c r="H73" s="66" t="str">
         <f>AF76</f>
         <v>102</v>
       </c>
@@ -4437,10 +4421,10 @@
       <c r="P73" s="7">
         <v>45705.5416666667</v>
       </c>
-      <c r="Q73" s="27" t="s">
+      <c r="Q73" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R73" s="67" t="s">
+      <c r="R73" s="63" t="s">
         <v>36</v>
       </c>
       <c r="U73" s="6" t="s">
@@ -4451,59 +4435,59 @@
         <v>B00001</v>
       </c>
       <c r="W73" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="X73" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="X73" s="63" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="74" spans="12:24">
       <c r="L74" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M74" s="6" t="str">
         <f>D73</f>
         <v>A00001</v>
       </c>
       <c r="N74" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O74" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="O74" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="P74" s="19">
         <v>45705.625</v>
       </c>
-      <c r="Q74" s="27" t="s">
+      <c r="Q74" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R74" s="67" t="s">
+      <c r="R74" s="63" t="s">
         <v>36</v>
       </c>
       <c r="U74" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V74" s="6" t="str">
         <f>L74</f>
         <v>B00002</v>
       </c>
       <c r="W74" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="X74" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="X74" s="63" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="75" spans="12:24">
       <c r="L75" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M75" s="6" t="str">
         <f>D73</f>
         <v>A00001</v>
       </c>
       <c r="N75" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O75" s="17" t="s">
         <v>32</v>
@@ -4511,67 +4495,67 @@
       <c r="P75" s="19">
         <v>45705.7083333333</v>
       </c>
-      <c r="Q75" s="27" t="s">
+      <c r="Q75" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R75" s="67" t="s">
+      <c r="R75" s="63" t="s">
         <v>36</v>
       </c>
       <c r="U75" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V75" s="6" t="str">
         <f>L75</f>
         <v>B00003</v>
       </c>
       <c r="W75" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="X75" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="X75" s="63" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="76" spans="12:32">
       <c r="L76" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M76" s="6" t="str">
         <f>D73</f>
         <v>A00001</v>
       </c>
       <c r="N76" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="O76" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P76" s="42">
+        <v>45705.7291666667</v>
+      </c>
+      <c r="Q76" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="O76" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="P76" s="45">
-        <v>45705.7291666667</v>
-      </c>
-      <c r="Q76" s="27" t="s">
-        <v>35</v>
-      </c>
       <c r="R76" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA76" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AB76" s="36" t="str">
+      <c r="AA76" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB76" s="34" t="str">
         <f>L76</f>
         <v>B00004</v>
       </c>
       <c r="AC76" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD76" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD76" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="AE76" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF76" s="73" t="s">
-        <v>51</v>
+      <c r="AE76" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF76" s="67" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="11:24">
@@ -4579,802 +4563,812 @@
         <v>5</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M77" s="6" t="str">
         <f>D73</f>
         <v>A00001</v>
       </c>
       <c r="N77" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O77" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="O77" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="P77" s="15">
         <v>45705.7916666667</v>
       </c>
+      <c r="Q77" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="R77" s="63" t="s">
+        <v>49</v>
+      </c>
       <c r="T77" s="5" t="s">
         <v>5</v>
       </c>
       <c r="U77" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V77" s="6" t="str">
         <f>L77</f>
         <v>B00005</v>
       </c>
       <c r="W77" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="X77" s="69" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="X77" s="63" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="2:34">
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="35"/>
-      <c r="N81" s="35"/>
-      <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="35"/>
-      <c r="R81" s="35"/>
-      <c r="S81" s="35"/>
-      <c r="T81" s="35"/>
-      <c r="U81" s="35"/>
-      <c r="V81" s="35"/>
-      <c r="W81" s="35"/>
-      <c r="X81" s="35"/>
-      <c r="Y81" s="35"/>
-      <c r="Z81" s="35"/>
-      <c r="AA81" s="35"/>
-      <c r="AB81" s="35"/>
-      <c r="AC81" s="35"/>
-      <c r="AD81" s="35"/>
-      <c r="AE81" s="35"/>
-      <c r="AF81" s="35"/>
-      <c r="AG81" s="35"/>
-      <c r="AH81" s="35"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="33"/>
+      <c r="N81" s="33"/>
+      <c r="O81" s="33"/>
+      <c r="P81" s="33"/>
+      <c r="Q81" s="50"/>
+      <c r="R81" s="50"/>
+      <c r="S81" s="33"/>
+      <c r="T81" s="33"/>
+      <c r="U81" s="33"/>
+      <c r="V81" s="33"/>
+      <c r="W81" s="33"/>
+      <c r="X81" s="33"/>
+      <c r="Y81" s="33"/>
+      <c r="Z81" s="33"/>
+      <c r="AA81" s="33"/>
+      <c r="AB81" s="33"/>
+      <c r="AC81" s="33"/>
+      <c r="AD81" s="33"/>
+      <c r="AE81" s="33"/>
+      <c r="AF81" s="33"/>
+      <c r="AG81" s="33"/>
+      <c r="AH81" s="33"/>
     </row>
     <row r="82" spans="2:34">
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="35"/>
-      <c r="V82" s="35"/>
-      <c r="W82" s="35"/>
-      <c r="X82" s="35"/>
-      <c r="Y82" s="35"/>
-      <c r="Z82" s="35"/>
-      <c r="AA82" s="35"/>
-      <c r="AB82" s="35"/>
-      <c r="AC82" s="35"/>
-      <c r="AD82" s="35"/>
-      <c r="AE82" s="35"/>
-      <c r="AF82" s="35"/>
-      <c r="AG82" s="35"/>
-      <c r="AH82" s="35"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="33"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="33"/>
+      <c r="P82" s="33"/>
+      <c r="Q82" s="50"/>
+      <c r="R82" s="50"/>
+      <c r="S82" s="33"/>
+      <c r="T82" s="33"/>
+      <c r="U82" s="33"/>
+      <c r="V82" s="33"/>
+      <c r="W82" s="33"/>
+      <c r="X82" s="33"/>
+      <c r="Y82" s="33"/>
+      <c r="Z82" s="33"/>
+      <c r="AA82" s="33"/>
+      <c r="AB82" s="33"/>
+      <c r="AC82" s="33"/>
+      <c r="AD82" s="33"/>
+      <c r="AE82" s="33"/>
+      <c r="AF82" s="33"/>
+      <c r="AG82" s="33"/>
+      <c r="AH82" s="33"/>
     </row>
     <row r="83" spans="2:34">
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="35"/>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="35"/>
-      <c r="S83" s="35"/>
-      <c r="T83" s="35"/>
-      <c r="U83" s="35"/>
-      <c r="V83" s="35"/>
-      <c r="W83" s="35"/>
-      <c r="X83" s="35"/>
-      <c r="Y83" s="35"/>
-      <c r="Z83" s="35"/>
-      <c r="AA83" s="35"/>
-      <c r="AB83" s="35"/>
-      <c r="AC83" s="35"/>
-      <c r="AD83" s="35"/>
-      <c r="AE83" s="35"/>
-      <c r="AF83" s="35"/>
-      <c r="AG83" s="35"/>
-      <c r="AH83" s="35"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="33"/>
+      <c r="M83" s="33"/>
+      <c r="N83" s="33"/>
+      <c r="O83" s="33"/>
+      <c r="P83" s="33"/>
+      <c r="Q83" s="50"/>
+      <c r="R83" s="50"/>
+      <c r="S83" s="33"/>
+      <c r="T83" s="33"/>
+      <c r="U83" s="33"/>
+      <c r="V83" s="33"/>
+      <c r="W83" s="33"/>
+      <c r="X83" s="33"/>
+      <c r="Y83" s="33"/>
+      <c r="Z83" s="33"/>
+      <c r="AA83" s="33"/>
+      <c r="AB83" s="33"/>
+      <c r="AC83" s="33"/>
+      <c r="AD83" s="33"/>
+      <c r="AE83" s="33"/>
+      <c r="AF83" s="33"/>
+      <c r="AG83" s="33"/>
+      <c r="AH83" s="33"/>
     </row>
     <row r="84" spans="2:34">
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="35"/>
-      <c r="T84" s="35"/>
-      <c r="U84" s="35"/>
-      <c r="V84" s="35"/>
-      <c r="W84" s="35"/>
-      <c r="X84" s="35"/>
-      <c r="Y84" s="35"/>
-      <c r="Z84" s="35"/>
-      <c r="AA84" s="35"/>
-      <c r="AB84" s="35"/>
-      <c r="AC84" s="35"/>
-      <c r="AD84" s="35"/>
-      <c r="AE84" s="35"/>
-      <c r="AF84" s="35"/>
-      <c r="AG84" s="35"/>
-      <c r="AH84" s="35"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="50"/>
+      <c r="R84" s="50"/>
+      <c r="S84" s="33"/>
+      <c r="T84" s="33"/>
+      <c r="U84" s="33"/>
+      <c r="V84" s="33"/>
+      <c r="W84" s="33"/>
+      <c r="X84" s="33"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="33"/>
+      <c r="AA84" s="33"/>
+      <c r="AB84" s="33"/>
+      <c r="AC84" s="33"/>
+      <c r="AD84" s="33"/>
+      <c r="AE84" s="33"/>
+      <c r="AF84" s="33"/>
+      <c r="AG84" s="33"/>
+      <c r="AH84" s="33"/>
     </row>
     <row r="85" spans="2:34">
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="40" t="s">
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="46" t="s">
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M85" s="46"/>
-      <c r="N85" s="46"/>
-      <c r="O85" s="46"/>
-      <c r="P85" s="46"/>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="35"/>
-      <c r="T85" s="35"/>
-      <c r="U85" s="52" t="s">
+      <c r="M85" s="43"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="43"/>
+      <c r="P85" s="43"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="33"/>
+      <c r="T85" s="33"/>
+      <c r="U85" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="V85" s="52"/>
-      <c r="W85" s="52"/>
-      <c r="X85" s="52"/>
-      <c r="Y85" s="35"/>
-      <c r="Z85" s="35"/>
-      <c r="AA85" s="61" t="s">
+      <c r="V85" s="51"/>
+      <c r="W85" s="51"/>
+      <c r="X85" s="51"/>
+      <c r="Y85" s="33"/>
+      <c r="Z85" s="33"/>
+      <c r="AA85" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="AB85" s="61"/>
-      <c r="AC85" s="61"/>
-      <c r="AD85" s="61"/>
-      <c r="AE85" s="61"/>
-      <c r="AF85" s="61"/>
-      <c r="AG85" s="35"/>
-      <c r="AH85" s="35"/>
+      <c r="AB85" s="56"/>
+      <c r="AC85" s="56"/>
+      <c r="AD85" s="56"/>
+      <c r="AE85" s="56"/>
+      <c r="AF85" s="56"/>
+      <c r="AG85" s="33"/>
+      <c r="AH85" s="33"/>
     </row>
     <row r="86" spans="2:34">
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="47"/>
-      <c r="M86" s="48"/>
-      <c r="N86" s="48"/>
-      <c r="O86" s="48"/>
-      <c r="P86" s="48"/>
-      <c r="Q86" s="53"/>
-      <c r="R86" s="53"/>
-      <c r="S86" s="35"/>
-      <c r="T86" s="35"/>
-      <c r="U86" s="54"/>
-      <c r="V86" s="55"/>
-      <c r="W86" s="55"/>
-      <c r="X86" s="55"/>
-      <c r="Y86" s="35"/>
-      <c r="Z86" s="35"/>
-      <c r="AA86" s="62"/>
-      <c r="AB86" s="63"/>
-      <c r="AC86" s="63"/>
-      <c r="AD86" s="63"/>
-      <c r="AE86" s="63"/>
-      <c r="AF86" s="63"/>
-      <c r="AG86" s="35"/>
-      <c r="AH86" s="35"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="45"/>
+      <c r="N86" s="45"/>
+      <c r="O86" s="45"/>
+      <c r="P86" s="45"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="33"/>
+      <c r="T86" s="33"/>
+      <c r="U86" s="52"/>
+      <c r="V86" s="53"/>
+      <c r="W86" s="53"/>
+      <c r="X86" s="53"/>
+      <c r="Y86" s="33"/>
+      <c r="Z86" s="33"/>
+      <c r="AA86" s="57"/>
+      <c r="AB86" s="58"/>
+      <c r="AC86" s="58"/>
+      <c r="AD86" s="58"/>
+      <c r="AE86" s="58"/>
+      <c r="AF86" s="58"/>
+      <c r="AG86" s="33"/>
+      <c r="AH86" s="33"/>
     </row>
     <row r="87" spans="2:34">
-      <c r="B87" s="35"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="42" t="s">
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="42" t="s">
+      <c r="E87" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="42" t="s">
+      <c r="F87" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G87" s="42" t="s">
+      <c r="G87" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H87" s="42" t="s">
+      <c r="H87" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I87" s="42" t="s">
+      <c r="I87" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="49" t="s">
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M87" s="50" t="s">
+      <c r="M87" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="N87" s="50" t="s">
+      <c r="N87" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="O87" s="50" t="s">
+      <c r="O87" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="P87" s="50" t="s">
+      <c r="P87" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="Q87" s="56" t="s">
+      <c r="Q87" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="R87" s="56" t="s">
+      <c r="R87" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="S87" s="35"/>
-      <c r="T87" s="35"/>
-      <c r="U87" s="57" t="s">
+      <c r="S87" s="33"/>
+      <c r="T87" s="33"/>
+      <c r="U87" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="V87" s="58" t="s">
+      <c r="V87" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="W87" s="58" t="s">
+      <c r="W87" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="X87" s="58" t="s">
+      <c r="X87" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="Y87" s="35"/>
-      <c r="Z87" s="35"/>
-      <c r="AA87" s="64" t="s">
+      <c r="Y87" s="33"/>
+      <c r="Z87" s="33"/>
+      <c r="AA87" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AB87" s="65" t="s">
+      <c r="AB87" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="AC87" s="65" t="s">
+      <c r="AC87" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AD87" s="65" t="s">
+      <c r="AD87" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AE87" s="65" t="s">
+      <c r="AE87" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="AF87" s="65" t="s">
+      <c r="AF87" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="AG87" s="35"/>
-      <c r="AH87" s="35"/>
+      <c r="AG87" s="33"/>
+      <c r="AH87" s="33"/>
     </row>
     <row r="88" spans="2:34">
-      <c r="B88" s="35"/>
-      <c r="C88" s="43" t="s">
+      <c r="B88" s="33"/>
+      <c r="C88" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D88" s="36" t="s">
+      <c r="D88" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E88" s="36" t="s">
+      <c r="E88" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F88" s="37">
+      <c r="F88" s="35">
         <v>45705.5416666667</v>
       </c>
-      <c r="G88" s="44">
+      <c r="G88" s="41">
         <v>45705.8333333333</v>
       </c>
-      <c r="H88" s="36" t="str">
+      <c r="H88" s="34" t="str">
         <f>AF91</f>
         <v>102</v>
       </c>
-      <c r="I88" s="37">
+      <c r="I88" s="35">
         <f>P92</f>
         <v>45705.7916666667</v>
       </c>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="36" t="s">
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="M88" s="36" t="str">
+      <c r="M88" s="34" t="str">
         <f>D88</f>
         <v>A00001</v>
       </c>
-      <c r="N88" s="36" t="s">
+      <c r="N88" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="O88" s="36" t="s">
+      <c r="O88" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="P88" s="37">
+      <c r="P88" s="35">
         <v>45705.5416666667</v>
       </c>
-      <c r="Q88" s="59" t="s">
+      <c r="Q88" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="R88" s="59" t="s">
+      <c r="R88" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="S88" s="35"/>
-      <c r="T88" s="35"/>
-      <c r="U88" s="36" t="s">
+      <c r="S88" s="33"/>
+      <c r="T88" s="33"/>
+      <c r="U88" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="V88" s="36" t="str">
+      <c r="V88" s="34" t="str">
         <f t="shared" ref="V88:V90" si="0">L88</f>
         <v>B00001</v>
       </c>
-      <c r="W88" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="X88" s="60" t="s">
+      <c r="W88" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="X88" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="Y88" s="35"/>
-      <c r="Z88" s="35"/>
-      <c r="AA88" s="35"/>
-      <c r="AB88" s="35"/>
-      <c r="AC88" s="35"/>
-      <c r="AD88" s="35"/>
-      <c r="AE88" s="35"/>
-      <c r="AF88" s="35"/>
-      <c r="AG88" s="35"/>
-      <c r="AH88" s="35"/>
+      <c r="Y88" s="33"/>
+      <c r="Z88" s="33"/>
+      <c r="AA88" s="33"/>
+      <c r="AB88" s="33"/>
+      <c r="AC88" s="33"/>
+      <c r="AD88" s="33"/>
+      <c r="AE88" s="33"/>
+      <c r="AF88" s="33"/>
+      <c r="AG88" s="33"/>
+      <c r="AH88" s="33"/>
     </row>
     <row r="89" spans="2:34">
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="M89" s="36" t="str">
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M89" s="34" t="str">
         <f>D88</f>
         <v>A00001</v>
       </c>
-      <c r="N89" s="36" t="s">
+      <c r="N89" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O89" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O89" s="36" t="s">
+      <c r="P89" s="35">
+        <v>45705.625</v>
+      </c>
+      <c r="Q89" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="R89" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="S89" s="33"/>
+      <c r="T89" s="33"/>
+      <c r="U89" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="P89" s="37">
-        <v>45705.625</v>
-      </c>
-      <c r="Q89" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="R89" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="S89" s="35"/>
-      <c r="T89" s="35"/>
-      <c r="U89" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="V89" s="36" t="str">
+      <c r="V89" s="34" t="str">
         <f t="shared" si="0"/>
         <v>B00002</v>
       </c>
-      <c r="W89" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="X89" s="60" t="s">
+      <c r="W89" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="X89" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="Y89" s="35"/>
-      <c r="Z89" s="35"/>
-      <c r="AA89" s="35"/>
-      <c r="AB89" s="35"/>
-      <c r="AC89" s="35"/>
-      <c r="AD89" s="35"/>
-      <c r="AE89" s="35"/>
-      <c r="AF89" s="35"/>
-      <c r="AG89" s="35"/>
-      <c r="AH89" s="35"/>
+      <c r="Y89" s="33"/>
+      <c r="Z89" s="33"/>
+      <c r="AA89" s="33"/>
+      <c r="AB89" s="33"/>
+      <c r="AC89" s="33"/>
+      <c r="AD89" s="33"/>
+      <c r="AE89" s="33"/>
+      <c r="AF89" s="33"/>
+      <c r="AG89" s="33"/>
+      <c r="AH89" s="33"/>
     </row>
     <row r="90" spans="2:34">
-      <c r="B90" s="35"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="M90" s="36" t="str">
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="M90" s="34" t="str">
         <f>D88</f>
         <v>A00001</v>
       </c>
-      <c r="N90" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="O90" s="36" t="s">
+      <c r="N90" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O90" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="P90" s="37">
+      <c r="P90" s="35">
         <v>45705.7083333333</v>
       </c>
-      <c r="Q90" s="59" t="s">
+      <c r="Q90" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="R90" s="59" t="s">
+      <c r="R90" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="S90" s="35"/>
-      <c r="T90" s="35"/>
-      <c r="U90" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="V90" s="36" t="str">
+      <c r="S90" s="33"/>
+      <c r="T90" s="33"/>
+      <c r="U90" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="V90" s="34" t="str">
         <f t="shared" si="0"/>
         <v>B00003</v>
       </c>
-      <c r="W90" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="X90" s="60" t="s">
+      <c r="W90" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="X90" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="Y90" s="35"/>
-      <c r="Z90" s="35"/>
-      <c r="AA90" s="35"/>
-      <c r="AB90" s="35"/>
-      <c r="AC90" s="35"/>
-      <c r="AD90" s="35"/>
-      <c r="AE90" s="35"/>
-      <c r="AF90" s="35"/>
-      <c r="AG90" s="35"/>
-      <c r="AH90" s="35"/>
+      <c r="Y90" s="33"/>
+      <c r="Z90" s="33"/>
+      <c r="AA90" s="33"/>
+      <c r="AB90" s="33"/>
+      <c r="AC90" s="33"/>
+      <c r="AD90" s="33"/>
+      <c r="AE90" s="33"/>
+      <c r="AF90" s="33"/>
+      <c r="AG90" s="33"/>
+      <c r="AH90" s="33"/>
     </row>
     <row r="91" spans="2:34">
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="M91" s="36" t="str">
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="M91" s="34" t="str">
         <f>D88</f>
         <v>A00001</v>
       </c>
-      <c r="N91" s="36" t="s">
+      <c r="N91" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="O91" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P91" s="35">
+        <v>45705.7291666667</v>
+      </c>
+      <c r="Q91" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="O91" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="P91" s="37">
-        <v>45705.7291666667</v>
-      </c>
-      <c r="Q91" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="R91" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="S91" s="35"/>
-      <c r="T91" s="35"/>
-      <c r="U91" s="35"/>
-      <c r="V91" s="35"/>
-      <c r="W91" s="35"/>
-      <c r="X91" s="35"/>
-      <c r="Y91" s="35"/>
-      <c r="Z91" s="35"/>
-      <c r="AA91" s="36" t="s">
+      <c r="R91" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="AB91" s="36" t="str">
+      <c r="S91" s="33"/>
+      <c r="T91" s="33"/>
+      <c r="U91" s="33"/>
+      <c r="V91" s="33"/>
+      <c r="W91" s="33"/>
+      <c r="X91" s="33"/>
+      <c r="Y91" s="33"/>
+      <c r="Z91" s="33"/>
+      <c r="AA91" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB91" s="34" t="str">
         <f>L91</f>
         <v>B00004</v>
       </c>
-      <c r="AC91" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD91" s="37" t="s">
+      <c r="AC91" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD91" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AE91" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF91" s="60" t="s">
+      <c r="AE91" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF91" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG91" s="33"/>
+      <c r="AH91" s="33"/>
+    </row>
+    <row r="92" spans="2:34">
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="AG91" s="35"/>
-      <c r="AH91" s="35"/>
-    </row>
-    <row r="92" spans="2:34">
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="M92" s="36" t="str">
+      <c r="M92" s="34" t="str">
         <f>D88</f>
         <v>A00001</v>
       </c>
-      <c r="N92" s="36" t="s">
+      <c r="N92" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O92" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O92" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="P92" s="37">
+      <c r="P92" s="35">
         <v>45705.7916666667</v>
       </c>
-      <c r="Q92" s="35"/>
-      <c r="R92" s="35"/>
-      <c r="S92" s="35"/>
-      <c r="T92" s="35"/>
-      <c r="U92" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="V92" s="36" t="str">
+      <c r="Q92" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="R92" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="S92" s="33"/>
+      <c r="T92" s="33"/>
+      <c r="U92" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="V92" s="34" t="str">
         <f>L92</f>
         <v>B00005</v>
       </c>
-      <c r="W92" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="X92" s="60" t="s">
+      <c r="W92" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="X92" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y92" s="33"/>
+      <c r="Z92" s="33"/>
+      <c r="AA92" s="33"/>
+      <c r="AB92" s="33"/>
+      <c r="AC92" s="33"/>
+      <c r="AD92" s="33"/>
+      <c r="AE92" s="33"/>
+      <c r="AF92" s="33"/>
+      <c r="AG92" s="33"/>
+      <c r="AH92" s="33"/>
+    </row>
+    <row r="93" spans="2:34">
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="L93" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="Y92" s="35"/>
-      <c r="Z92" s="35"/>
-      <c r="AA92" s="35"/>
-      <c r="AB92" s="35"/>
-      <c r="AC92" s="35"/>
-      <c r="AD92" s="35"/>
-      <c r="AE92" s="35"/>
-      <c r="AF92" s="35"/>
-      <c r="AG92" s="35"/>
-      <c r="AH92" s="35"/>
-    </row>
-    <row r="93" spans="2:34">
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="L93" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="M93" s="36" t="str">
+      <c r="M93" s="34" t="str">
         <f>D88</f>
         <v>A00001</v>
       </c>
-      <c r="N93" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="O93" s="36" t="s">
+      <c r="N93" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="O93" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="P93" s="37">
+      <c r="P93" s="35">
         <v>45705.8333333333</v>
       </c>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="35"/>
-      <c r="S93" s="35"/>
-      <c r="T93" s="35"/>
-      <c r="U93" s="35"/>
-      <c r="V93" s="35"/>
-      <c r="W93" s="35"/>
-      <c r="X93" s="35"/>
-      <c r="Y93" s="35"/>
-      <c r="Z93" s="35"/>
-      <c r="AA93" s="35"/>
-      <c r="AB93" s="35"/>
-      <c r="AC93" s="35"/>
-      <c r="AD93" s="35"/>
-      <c r="AE93" s="35"/>
-      <c r="AF93" s="35"/>
-      <c r="AG93" s="35"/>
-      <c r="AH93" s="35"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="33"/>
+      <c r="T93" s="33"/>
+      <c r="U93" s="33"/>
+      <c r="V93" s="33"/>
+      <c r="W93" s="33"/>
+      <c r="X93" s="33"/>
+      <c r="Y93" s="33"/>
+      <c r="Z93" s="33"/>
+      <c r="AA93" s="33"/>
+      <c r="AB93" s="33"/>
+      <c r="AC93" s="33"/>
+      <c r="AD93" s="33"/>
+      <c r="AE93" s="33"/>
+      <c r="AF93" s="33"/>
+      <c r="AG93" s="33"/>
+      <c r="AH93" s="33"/>
     </row>
     <row r="94" spans="2:34">
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="35"/>
-      <c r="N94" s="35"/>
-      <c r="O94" s="35"/>
-      <c r="P94" s="35"/>
-      <c r="Q94" s="35"/>
-      <c r="R94" s="35"/>
-      <c r="S94" s="35"/>
-      <c r="T94" s="35"/>
-      <c r="U94" s="35"/>
-      <c r="V94" s="35"/>
-      <c r="W94" s="35"/>
-      <c r="X94" s="35"/>
-      <c r="Y94" s="35"/>
-      <c r="Z94" s="35"/>
-      <c r="AA94" s="35"/>
-      <c r="AB94" s="35"/>
-      <c r="AC94" s="35"/>
-      <c r="AD94" s="35"/>
-      <c r="AE94" s="35"/>
-      <c r="AF94" s="35"/>
-      <c r="AG94" s="35"/>
-      <c r="AH94" s="35"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="33"/>
+      <c r="O94" s="33"/>
+      <c r="P94" s="33"/>
+      <c r="Q94" s="50"/>
+      <c r="R94" s="50"/>
+      <c r="S94" s="33"/>
+      <c r="T94" s="33"/>
+      <c r="U94" s="33"/>
+      <c r="V94" s="33"/>
+      <c r="W94" s="33"/>
+      <c r="X94" s="33"/>
+      <c r="Y94" s="33"/>
+      <c r="Z94" s="33"/>
+      <c r="AA94" s="33"/>
+      <c r="AB94" s="33"/>
+      <c r="AC94" s="33"/>
+      <c r="AD94" s="33"/>
+      <c r="AE94" s="33"/>
+      <c r="AF94" s="33"/>
+      <c r="AG94" s="33"/>
+      <c r="AH94" s="33"/>
     </row>
     <row r="95" spans="2:34">
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="35"/>
-      <c r="M95" s="35"/>
-      <c r="N95" s="35"/>
-      <c r="O95" s="35"/>
-      <c r="P95" s="35"/>
-      <c r="Q95" s="35"/>
-      <c r="R95" s="35"/>
-      <c r="S95" s="35"/>
-      <c r="T95" s="35"/>
-      <c r="U95" s="35"/>
-      <c r="V95" s="35"/>
-      <c r="W95" s="35"/>
-      <c r="X95" s="35"/>
-      <c r="Y95" s="35"/>
-      <c r="Z95" s="35"/>
-      <c r="AA95" s="35"/>
-      <c r="AB95" s="35"/>
-      <c r="AC95" s="35"/>
-      <c r="AD95" s="35"/>
-      <c r="AE95" s="35"/>
-      <c r="AF95" s="35"/>
-      <c r="AG95" s="35"/>
-      <c r="AH95" s="35"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="33"/>
+      <c r="M95" s="33"/>
+      <c r="N95" s="33"/>
+      <c r="O95" s="33"/>
+      <c r="P95" s="33"/>
+      <c r="Q95" s="50"/>
+      <c r="R95" s="50"/>
+      <c r="S95" s="33"/>
+      <c r="T95" s="33"/>
+      <c r="U95" s="33"/>
+      <c r="V95" s="33"/>
+      <c r="W95" s="33"/>
+      <c r="X95" s="33"/>
+      <c r="Y95" s="33"/>
+      <c r="Z95" s="33"/>
+      <c r="AA95" s="33"/>
+      <c r="AB95" s="33"/>
+      <c r="AC95" s="33"/>
+      <c r="AD95" s="33"/>
+      <c r="AE95" s="33"/>
+      <c r="AF95" s="33"/>
+      <c r="AG95" s="33"/>
+      <c r="AH95" s="33"/>
     </row>
     <row r="96" spans="2:34">
-      <c r="B96" s="35"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="35"/>
-      <c r="M96" s="35"/>
-      <c r="N96" s="35"/>
-      <c r="O96" s="35"/>
-      <c r="P96" s="35"/>
-      <c r="Q96" s="35"/>
-      <c r="R96" s="35"/>
-      <c r="S96" s="35"/>
-      <c r="T96" s="35"/>
-      <c r="U96" s="35"/>
-      <c r="V96" s="35"/>
-      <c r="W96" s="35"/>
-      <c r="X96" s="35"/>
-      <c r="Y96" s="35"/>
-      <c r="Z96" s="35"/>
-      <c r="AA96" s="35"/>
-      <c r="AB96" s="35"/>
-      <c r="AC96" s="35"/>
-      <c r="AD96" s="35"/>
-      <c r="AE96" s="35"/>
-      <c r="AF96" s="35"/>
-      <c r="AG96" s="35"/>
-      <c r="AH96" s="35"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="33"/>
+      <c r="N96" s="33"/>
+      <c r="O96" s="33"/>
+      <c r="P96" s="33"/>
+      <c r="Q96" s="50"/>
+      <c r="R96" s="50"/>
+      <c r="S96" s="33"/>
+      <c r="T96" s="33"/>
+      <c r="U96" s="33"/>
+      <c r="V96" s="33"/>
+      <c r="W96" s="33"/>
+      <c r="X96" s="33"/>
+      <c r="Y96" s="33"/>
+      <c r="Z96" s="33"/>
+      <c r="AA96" s="33"/>
+      <c r="AB96" s="33"/>
+      <c r="AC96" s="33"/>
+      <c r="AD96" s="33"/>
+      <c r="AE96" s="33"/>
+      <c r="AF96" s="33"/>
+      <c r="AG96" s="33"/>
+      <c r="AH96" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/受付画面/新規画面資料/受付画面_データ生成イメージ.xlsx
+++ b/documents/受付画面/新規画面資料/受付画面_データ生成イメージ.xlsx
@@ -187,11 +187,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -207,20 +207,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,16 +242,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,9 +278,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,13 +328,6 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,27 +353,19 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -399,6 +405,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -411,19 +429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,13 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,49 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,19 +513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,25 +537,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,21 +677,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -707,6 +698,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,11 +735,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,348 +757,390 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1182,7 +1230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="475615" y="2086610"/>
-          <a:ext cx="13262610" cy="1496060"/>
+          <a:ext cx="23530560" cy="1496060"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1253,7 +1301,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="554990" y="4469130"/>
-          <a:ext cx="13215620" cy="1475105"/>
+          <a:ext cx="23483570" cy="1475105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1423,7 +1471,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="509905" y="6605905"/>
-          <a:ext cx="13193395" cy="1656080"/>
+          <a:ext cx="23461345" cy="1656080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1593,7 +1641,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="487045" y="8982710"/>
-          <a:ext cx="13148945" cy="1841500"/>
+          <a:ext cx="23416895" cy="1841500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1763,7 +1811,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="498475" y="11579225"/>
-          <a:ext cx="13148310" cy="1786890"/>
+          <a:ext cx="23416260" cy="1786890"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1933,7 +1981,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="509905" y="14195425"/>
-          <a:ext cx="13148310" cy="2174240"/>
+          <a:ext cx="23416260" cy="2174240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2397,8 +2445,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13572490" y="16208375"/>
-          <a:ext cx="0" cy="1348105"/>
+          <a:off x="12383770" y="16208375"/>
+          <a:ext cx="4302760" cy="1348105"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2584,8 +2632,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13572490" y="16047720"/>
-          <a:ext cx="0" cy="1348105"/>
+          <a:off x="18202275" y="16047720"/>
+          <a:ext cx="3283585" cy="1348105"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -3133,24 +3181,23 @@
     <col min="14" max="14" width="12.6416666666667" customWidth="1"/>
     <col min="15" max="15" width="9.625" customWidth="1"/>
     <col min="16" max="16" width="18.375" customWidth="1"/>
-    <col min="17" max="17" width="7.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5" customWidth="1"/>
-    <col min="20" max="20" width="1.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="16.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="8.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="2.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="1.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="8.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="16.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="23.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="18.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="13.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="4.625" customWidth="1" collapsed="1"/>
-    <col min="34" max="16334" width="4.625" customWidth="1"/>
+    <col min="17" max="17" width="7.875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="8.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="2.5" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="1.875" customWidth="1"/>
+    <col min="21" max="21" width="10" customWidth="1"/>
+    <col min="22" max="22" width="16.375" customWidth="1"/>
+    <col min="23" max="23" width="12.5" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="25" max="25" width="2.375" customWidth="1"/>
+    <col min="26" max="26" width="1.875" customWidth="1"/>
+    <col min="27" max="27" width="8.375" customWidth="1"/>
+    <col min="28" max="28" width="16.375" customWidth="1"/>
+    <col min="29" max="29" width="23.875" customWidth="1"/>
+    <col min="30" max="30" width="18.125" customWidth="1"/>
+    <col min="31" max="31" width="13.375" customWidth="1"/>
+    <col min="32" max="32" width="17.25" customWidth="1"/>
+    <col min="33" max="16334" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3215,22 +3262,22 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
       <c r="U16" s="20" t="s">
         <v>12</v>
       </c>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
-      <c r="AA16" s="28" t="s">
+      <c r="AA16" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
     </row>
     <row r="17" spans="4:32">
       <c r="D17" s="3"/>
@@ -3244,18 +3291,18 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
     </row>
     <row r="18" spans="4:32">
       <c r="D18" s="4" t="s">
@@ -3291,40 +3338,40 @@
       <c r="P18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q18" s="14" t="s">
+      <c r="Q18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="R18" s="14" t="s">
+      <c r="R18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="U18" s="23" t="s">
+      <c r="U18" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="V18" s="24" t="s">
+      <c r="V18" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="W18" s="24" t="s">
+      <c r="W18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="X18" s="24" t="s">
+      <c r="X18" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AA18" s="31" t="s">
+      <c r="AA18" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AB18" s="32" t="s">
+      <c r="AB18" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AC18" s="32" t="s">
+      <c r="AC18" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AD18" s="32" t="s">
+      <c r="AD18" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AE18" s="32" t="s">
+      <c r="AE18" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AF18" s="32" t="s">
+      <c r="AF18" s="38" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3342,7 +3389,7 @@
         <v>45705.5416666667</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="61" t="str">
+      <c r="H19" s="71" t="str">
         <f>X19</f>
         <v>101</v>
       </c>
@@ -3369,10 +3416,10 @@
       <c r="P19" s="15">
         <v>45705.5416666667</v>
       </c>
-      <c r="Q19" s="17" t="s">
+      <c r="Q19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="62" t="s">
+      <c r="R19" s="72" t="s">
         <v>36</v>
       </c>
       <c r="T19" s="5" t="s">
@@ -3388,7 +3435,7 @@
       <c r="W19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="62" t="s">
+      <c r="X19" s="73" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3413,22 +3460,22 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
       <c r="U28" s="20" t="s">
         <v>12</v>
       </c>
       <c r="V28" s="20"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
-      <c r="AA28" s="28" t="s">
+      <c r="AA28" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
     </row>
     <row r="29" spans="4:32">
       <c r="D29" s="3"/>
@@ -3442,18 +3489,18 @@
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
     </row>
     <row r="30" spans="4:32">
       <c r="D30" s="4" t="s">
@@ -3489,40 +3536,40 @@
       <c r="P30" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q30" s="14" t="s">
+      <c r="Q30" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="R30" s="14" t="s">
+      <c r="R30" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="U30" s="23" t="s">
+      <c r="U30" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="V30" s="24" t="s">
+      <c r="V30" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="W30" s="24" t="s">
+      <c r="W30" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="X30" s="24" t="s">
+      <c r="X30" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AA30" s="31" t="s">
+      <c r="AA30" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AB30" s="32" t="s">
+      <c r="AB30" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AC30" s="32" t="s">
+      <c r="AC30" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AD30" s="32" t="s">
+      <c r="AD30" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AE30" s="32" t="s">
+      <c r="AE30" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AF30" s="32" t="s">
+      <c r="AF30" s="38" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3563,10 +3610,10 @@
       <c r="P31" s="7">
         <v>45705.5416666667</v>
       </c>
-      <c r="Q31" s="17" t="s">
+      <c r="Q31" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="R31" s="63" t="s">
+      <c r="R31" s="74" t="s">
         <v>36</v>
       </c>
       <c r="U31" s="6" t="s">
@@ -3579,16 +3626,16 @@
       <c r="W31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X31" s="63" t="s">
+      <c r="X31" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="33"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="33"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
     </row>
     <row r="32" spans="11:32">
       <c r="K32" s="5" t="s">
@@ -3610,10 +3657,10 @@
       <c r="P32" s="15">
         <v>45705.625</v>
       </c>
-      <c r="Q32" s="17" t="s">
+      <c r="Q32" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="R32" s="63" t="s">
+      <c r="R32" s="74" t="s">
         <v>36</v>
       </c>
       <c r="T32" s="5" t="s">
@@ -3629,25 +3676,25 @@
       <c r="W32" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X32" s="63" t="s">
+      <c r="X32" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
     </row>
     <row r="33" spans="26:32">
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="33"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="33"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
@@ -3670,22 +3717,22 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
       <c r="U41" s="20" t="s">
         <v>12</v>
       </c>
       <c r="V41" s="20"/>
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
-      <c r="AA41" s="28" t="s">
+      <c r="AA41" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="28"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="34"/>
+      <c r="AE41" s="34"/>
+      <c r="AF41" s="34"/>
     </row>
     <row r="42" spans="4:32">
       <c r="D42" s="3"/>
@@ -3699,18 +3746,18 @@
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="30"/>
-      <c r="AC42" s="30"/>
-      <c r="AD42" s="30"/>
-      <c r="AE42" s="30"/>
-      <c r="AF42" s="30"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
     </row>
     <row r="43" spans="4:32">
       <c r="D43" s="4" t="s">
@@ -3746,40 +3793,40 @@
       <c r="P43" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q43" s="14" t="s">
+      <c r="Q43" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="R43" s="14" t="s">
+      <c r="R43" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="U43" s="23" t="s">
+      <c r="U43" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="V43" s="24" t="s">
+      <c r="V43" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="W43" s="24" t="s">
+      <c r="W43" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="X43" s="24" t="s">
+      <c r="X43" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AA43" s="31" t="s">
+      <c r="AA43" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AB43" s="32" t="s">
+      <c r="AB43" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AC43" s="32" t="s">
+      <c r="AC43" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AD43" s="32" t="s">
+      <c r="AD43" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AE43" s="32" t="s">
+      <c r="AE43" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AF43" s="32" t="s">
+      <c r="AF43" s="38" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3820,10 +3867,10 @@
       <c r="P44" s="7">
         <v>45705.5416666667</v>
       </c>
-      <c r="Q44" s="17" t="s">
+      <c r="Q44" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="R44" s="63" t="s">
+      <c r="R44" s="74" t="s">
         <v>36</v>
       </c>
       <c r="U44" s="6" t="s">
@@ -3836,7 +3883,7 @@
       <c r="W44" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X44" s="63" t="s">
+      <c r="X44" s="75" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3857,10 +3904,10 @@
       <c r="P45" s="18">
         <v>45705.625</v>
       </c>
-      <c r="Q45" s="17" t="s">
+      <c r="Q45" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="R45" s="63" t="s">
+      <c r="R45" s="74" t="s">
         <v>36</v>
       </c>
       <c r="U45" s="6" t="s">
@@ -3873,16 +3920,16 @@
       <c r="W45" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X45" s="63" t="s">
+      <c r="X45" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="33"/>
-      <c r="AD45" s="33"/>
-      <c r="AE45" s="33"/>
-      <c r="AF45" s="33"/>
+      <c r="Z45" s="39"/>
+      <c r="AA45" s="39"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39"/>
+      <c r="AE45" s="39"/>
+      <c r="AF45" s="39"/>
     </row>
     <row r="46" spans="11:32">
       <c r="K46" s="5" t="s">
@@ -3904,10 +3951,10 @@
       <c r="P46" s="15">
         <v>45705.7083333333</v>
       </c>
-      <c r="Q46" s="17" t="s">
+      <c r="Q46" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="R46" s="63" t="s">
+      <c r="R46" s="74" t="s">
         <v>36</v>
       </c>
       <c r="T46" s="5" t="s">
@@ -3923,16 +3970,16 @@
       <c r="W46" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X46" s="63" t="s">
+      <c r="X46" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="33"/>
-      <c r="AD46" s="33"/>
-      <c r="AE46" s="33"/>
-      <c r="AF46" s="33"/>
+      <c r="Z46" s="39"/>
+      <c r="AA46" s="39"/>
+      <c r="AB46" s="39"/>
+      <c r="AC46" s="39"/>
+      <c r="AD46" s="39"/>
+      <c r="AE46" s="39"/>
+      <c r="AF46" s="39"/>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" t="s">
@@ -3955,22 +4002,22 @@
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
       <c r="U55" s="20" t="s">
         <v>12</v>
       </c>
       <c r="V55" s="20"/>
       <c r="W55" s="20"/>
       <c r="X55" s="20"/>
-      <c r="AA55" s="28" t="s">
+      <c r="AA55" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AB55" s="28"/>
-      <c r="AC55" s="28"/>
-      <c r="AD55" s="28"/>
-      <c r="AE55" s="28"/>
-      <c r="AF55" s="28"/>
+      <c r="AB55" s="34"/>
+      <c r="AC55" s="34"/>
+      <c r="AD55" s="34"/>
+      <c r="AE55" s="34"/>
+      <c r="AF55" s="34"/>
     </row>
     <row r="56" spans="4:32">
       <c r="D56" s="3"/>
@@ -3984,18 +4031,18 @@
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="AA56" s="29"/>
-      <c r="AB56" s="30"/>
-      <c r="AC56" s="30"/>
-      <c r="AD56" s="30"/>
-      <c r="AE56" s="30"/>
-      <c r="AF56" s="30"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
+      <c r="X56" s="23"/>
+      <c r="AA56" s="35"/>
+      <c r="AB56" s="36"/>
+      <c r="AC56" s="36"/>
+      <c r="AD56" s="36"/>
+      <c r="AE56" s="36"/>
+      <c r="AF56" s="36"/>
     </row>
     <row r="57" spans="4:32">
       <c r="D57" s="4" t="s">
@@ -4031,40 +4078,40 @@
       <c r="P57" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q57" s="14" t="s">
+      <c r="Q57" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="R57" s="14" t="s">
+      <c r="R57" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="U57" s="23" t="s">
+      <c r="U57" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="V57" s="24" t="s">
+      <c r="V57" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="W57" s="24" t="s">
+      <c r="W57" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="X57" s="24" t="s">
+      <c r="X57" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AA57" s="31" t="s">
+      <c r="AA57" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AB57" s="32" t="s">
+      <c r="AB57" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AC57" s="32" t="s">
+      <c r="AC57" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AD57" s="32" t="s">
+      <c r="AD57" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AE57" s="32" t="s">
+      <c r="AE57" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AF57" s="32" t="s">
+      <c r="AF57" s="38" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4082,7 +4129,7 @@
         <v>45705.5416666667</v>
       </c>
       <c r="G58" s="8"/>
-      <c r="H58" s="61" t="str">
+      <c r="H58" s="71" t="str">
         <f>AF61</f>
         <v>102</v>
       </c>
@@ -4106,10 +4153,10 @@
       <c r="P58" s="7">
         <v>45705.5416666667</v>
       </c>
-      <c r="Q58" s="17" t="s">
+      <c r="Q58" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="R58" s="63" t="s">
+      <c r="R58" s="74" t="s">
         <v>36</v>
       </c>
       <c r="U58" s="6" t="s">
@@ -4122,7 +4169,7 @@
       <c r="W58" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X58" s="63" t="s">
+      <c r="X58" s="75" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4143,10 +4190,10 @@
       <c r="P59" s="19">
         <v>45705.625</v>
       </c>
-      <c r="Q59" s="17" t="s">
+      <c r="Q59" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="R59" s="63" t="s">
+      <c r="R59" s="74" t="s">
         <v>36</v>
       </c>
       <c r="U59" s="6" t="s">
@@ -4159,7 +4206,7 @@
       <c r="W59" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X59" s="63" t="s">
+      <c r="X59" s="75" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4180,10 +4227,10 @@
       <c r="P60" s="19">
         <v>45705.7083333333</v>
       </c>
-      <c r="Q60" s="17" t="s">
+      <c r="Q60" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="R60" s="63" t="s">
+      <c r="R60" s="74" t="s">
         <v>36</v>
       </c>
       <c r="U60" s="6" t="s">
@@ -4196,7 +4243,7 @@
       <c r="W60" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X60" s="63" t="s">
+      <c r="X60" s="75" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4220,32 +4267,32 @@
       <c r="P61" s="15">
         <v>45705.7291666667</v>
       </c>
-      <c r="Q61" s="9" t="s">
+      <c r="Q61" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="R61" s="64" t="s">
+      <c r="R61" s="76" t="s">
         <v>49</v>
       </c>
       <c r="Z61" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AA61" s="34" t="s">
+      <c r="AA61" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="AB61" s="34" t="str">
+      <c r="AB61" s="40" t="str">
         <f>L61</f>
         <v>B00004</v>
       </c>
       <c r="AC61" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AD61" s="65" t="s">
+      <c r="AD61" s="77" t="s">
         <v>36</v>
       </c>
       <c r="AE61" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AF61" s="64" t="s">
+      <c r="AF61" s="78" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4270,22 +4317,22 @@
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
       <c r="U70" s="20" t="s">
         <v>12</v>
       </c>
       <c r="V70" s="20"/>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
-      <c r="AA70" s="28" t="s">
+      <c r="AA70" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AB70" s="28"/>
-      <c r="AC70" s="28"/>
-      <c r="AD70" s="28"/>
-      <c r="AE70" s="28"/>
-      <c r="AF70" s="28"/>
+      <c r="AB70" s="34"/>
+      <c r="AC70" s="34"/>
+      <c r="AD70" s="34"/>
+      <c r="AE70" s="34"/>
+      <c r="AF70" s="34"/>
     </row>
     <row r="71" spans="4:32">
       <c r="D71" s="3"/>
@@ -4299,18 +4346,18 @@
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
       <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-      <c r="U71" s="21"/>
-      <c r="V71" s="22"/>
-      <c r="W71" s="22"/>
-      <c r="X71" s="22"/>
-      <c r="AA71" s="29"/>
-      <c r="AB71" s="30"/>
-      <c r="AC71" s="30"/>
-      <c r="AD71" s="30"/>
-      <c r="AE71" s="30"/>
-      <c r="AF71" s="30"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="U71" s="22"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="23"/>
+      <c r="AA71" s="35"/>
+      <c r="AB71" s="36"/>
+      <c r="AC71" s="36"/>
+      <c r="AD71" s="36"/>
+      <c r="AE71" s="36"/>
+      <c r="AF71" s="36"/>
     </row>
     <row r="72" spans="4:32">
       <c r="D72" s="4" t="s">
@@ -4346,40 +4393,40 @@
       <c r="P72" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q72" s="14" t="s">
+      <c r="Q72" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="R72" s="14" t="s">
+      <c r="R72" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="U72" s="23" t="s">
+      <c r="U72" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="V72" s="24" t="s">
+      <c r="V72" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="W72" s="24" t="s">
+      <c r="W72" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="X72" s="24" t="s">
+      <c r="X72" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AA72" s="31" t="s">
+      <c r="AA72" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AB72" s="32" t="s">
+      <c r="AB72" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AC72" s="32" t="s">
+      <c r="AC72" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AD72" s="32" t="s">
+      <c r="AD72" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AE72" s="32" t="s">
+      <c r="AE72" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AF72" s="32" t="s">
+      <c r="AF72" s="38" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4397,7 +4444,7 @@
         <v>45705.5416666667</v>
       </c>
       <c r="G73" s="8"/>
-      <c r="H73" s="66" t="str">
+      <c r="H73" s="79" t="str">
         <f>AF76</f>
         <v>102</v>
       </c>
@@ -4421,10 +4468,10 @@
       <c r="P73" s="7">
         <v>45705.5416666667</v>
       </c>
-      <c r="Q73" s="17" t="s">
+      <c r="Q73" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="R73" s="63" t="s">
+      <c r="R73" s="74" t="s">
         <v>36</v>
       </c>
       <c r="U73" s="6" t="s">
@@ -4437,7 +4484,7 @@
       <c r="W73" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X73" s="63" t="s">
+      <c r="X73" s="75" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4458,10 +4505,10 @@
       <c r="P74" s="19">
         <v>45705.625</v>
       </c>
-      <c r="Q74" s="17" t="s">
+      <c r="Q74" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="R74" s="63" t="s">
+      <c r="R74" s="74" t="s">
         <v>36</v>
       </c>
       <c r="U74" s="6" t="s">
@@ -4474,7 +4521,7 @@
       <c r="W74" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X74" s="63" t="s">
+      <c r="X74" s="75" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4495,10 +4542,10 @@
       <c r="P75" s="19">
         <v>45705.7083333333</v>
       </c>
-      <c r="Q75" s="17" t="s">
+      <c r="Q75" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="R75" s="63" t="s">
+      <c r="R75" s="74" t="s">
         <v>36</v>
       </c>
       <c r="U75" s="6" t="s">
@@ -4511,7 +4558,7 @@
       <c r="W75" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X75" s="63" t="s">
+      <c r="X75" s="75" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4529,32 +4576,32 @@
       <c r="O76" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="P76" s="42">
+      <c r="P76" s="49">
         <v>45705.7291666667</v>
       </c>
-      <c r="Q76" s="36" t="s">
+      <c r="Q76" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="R76" s="67" t="s">
+      <c r="R76" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="AA76" s="34" t="s">
+      <c r="AA76" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="AB76" s="34" t="str">
+      <c r="AB76" s="40" t="str">
         <f>L76</f>
         <v>B00004</v>
       </c>
       <c r="AC76" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AD76" s="65" t="s">
+      <c r="AD76" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="AE76" s="36" t="s">
+      <c r="AE76" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="AF76" s="67" t="s">
+      <c r="AF76" s="81" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4578,10 +4625,10 @@
       <c r="P77" s="15">
         <v>45705.7916666667</v>
       </c>
-      <c r="Q77" s="17" t="s">
+      <c r="Q77" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="R77" s="63" t="s">
+      <c r="R77" s="74" t="s">
         <v>49</v>
       </c>
       <c r="T77" s="5" t="s">
@@ -4597,778 +4644,778 @@
       <c r="W77" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="X77" s="63" t="s">
+      <c r="X77" s="75" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="81" spans="2:34">
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33" t="s">
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="33"/>
-      <c r="M81" s="33"/>
-      <c r="N81" s="33"/>
-      <c r="O81" s="33"/>
-      <c r="P81" s="33"/>
-      <c r="Q81" s="50"/>
-      <c r="R81" s="50"/>
-      <c r="S81" s="33"/>
-      <c r="T81" s="33"/>
-      <c r="U81" s="33"/>
-      <c r="V81" s="33"/>
-      <c r="W81" s="33"/>
-      <c r="X81" s="33"/>
-      <c r="Y81" s="33"/>
-      <c r="Z81" s="33"/>
-      <c r="AA81" s="33"/>
-      <c r="AB81" s="33"/>
-      <c r="AC81" s="33"/>
-      <c r="AD81" s="33"/>
-      <c r="AE81" s="33"/>
-      <c r="AF81" s="33"/>
-      <c r="AG81" s="33"/>
-      <c r="AH81" s="33"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="57"/>
+      <c r="R81" s="57"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
+      <c r="V81" s="39"/>
+      <c r="W81" s="39"/>
+      <c r="X81" s="39"/>
+      <c r="Y81" s="39"/>
+      <c r="Z81" s="39"/>
+      <c r="AA81" s="39"/>
+      <c r="AB81" s="39"/>
+      <c r="AC81" s="39"/>
+      <c r="AD81" s="39"/>
+      <c r="AE81" s="39"/>
+      <c r="AF81" s="39"/>
+      <c r="AG81" s="39"/>
+      <c r="AH81" s="39"/>
     </row>
     <row r="82" spans="2:34">
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
-      <c r="L82" s="33"/>
-      <c r="M82" s="33"/>
-      <c r="N82" s="33"/>
-      <c r="O82" s="33"/>
-      <c r="P82" s="33"/>
-      <c r="Q82" s="50"/>
-      <c r="R82" s="50"/>
-      <c r="S82" s="33"/>
-      <c r="T82" s="33"/>
-      <c r="U82" s="33"/>
-      <c r="V82" s="33"/>
-      <c r="W82" s="33"/>
-      <c r="X82" s="33"/>
-      <c r="Y82" s="33"/>
-      <c r="Z82" s="33"/>
-      <c r="AA82" s="33"/>
-      <c r="AB82" s="33"/>
-      <c r="AC82" s="33"/>
-      <c r="AD82" s="33"/>
-      <c r="AE82" s="33"/>
-      <c r="AF82" s="33"/>
-      <c r="AG82" s="33"/>
-      <c r="AH82" s="33"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="57"/>
+      <c r="R82" s="57"/>
+      <c r="S82" s="39"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="39"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="39"/>
+      <c r="X82" s="39"/>
+      <c r="Y82" s="39"/>
+      <c r="Z82" s="39"/>
+      <c r="AA82" s="39"/>
+      <c r="AB82" s="39"/>
+      <c r="AC82" s="39"/>
+      <c r="AD82" s="39"/>
+      <c r="AE82" s="39"/>
+      <c r="AF82" s="39"/>
+      <c r="AG82" s="39"/>
+      <c r="AH82" s="39"/>
     </row>
     <row r="83" spans="2:34">
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="33"/>
-      <c r="L83" s="33"/>
-      <c r="M83" s="33"/>
-      <c r="N83" s="33"/>
-      <c r="O83" s="33"/>
-      <c r="P83" s="33"/>
-      <c r="Q83" s="50"/>
-      <c r="R83" s="50"/>
-      <c r="S83" s="33"/>
-      <c r="T83" s="33"/>
-      <c r="U83" s="33"/>
-      <c r="V83" s="33"/>
-      <c r="W83" s="33"/>
-      <c r="X83" s="33"/>
-      <c r="Y83" s="33"/>
-      <c r="Z83" s="33"/>
-      <c r="AA83" s="33"/>
-      <c r="AB83" s="33"/>
-      <c r="AC83" s="33"/>
-      <c r="AD83" s="33"/>
-      <c r="AE83" s="33"/>
-      <c r="AF83" s="33"/>
-      <c r="AG83" s="33"/>
-      <c r="AH83" s="33"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="39"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="57"/>
+      <c r="R83" s="57"/>
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39"/>
+      <c r="V83" s="39"/>
+      <c r="W83" s="39"/>
+      <c r="X83" s="39"/>
+      <c r="Y83" s="39"/>
+      <c r="Z83" s="39"/>
+      <c r="AA83" s="39"/>
+      <c r="AB83" s="39"/>
+      <c r="AC83" s="39"/>
+      <c r="AD83" s="39"/>
+      <c r="AE83" s="39"/>
+      <c r="AF83" s="39"/>
+      <c r="AG83" s="39"/>
+      <c r="AH83" s="39"/>
     </row>
     <row r="84" spans="2:34">
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="33"/>
-      <c r="O84" s="33"/>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="50"/>
-      <c r="R84" s="50"/>
-      <c r="S84" s="33"/>
-      <c r="T84" s="33"/>
-      <c r="U84" s="33"/>
-      <c r="V84" s="33"/>
-      <c r="W84" s="33"/>
-      <c r="X84" s="33"/>
-      <c r="Y84" s="33"/>
-      <c r="Z84" s="33"/>
-      <c r="AA84" s="33"/>
-      <c r="AB84" s="33"/>
-      <c r="AC84" s="33"/>
-      <c r="AD84" s="33"/>
-      <c r="AE84" s="33"/>
-      <c r="AF84" s="33"/>
-      <c r="AG84" s="33"/>
-      <c r="AH84" s="33"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="39"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="57"/>
+      <c r="R84" s="57"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39"/>
+      <c r="W84" s="39"/>
+      <c r="X84" s="39"/>
+      <c r="Y84" s="39"/>
+      <c r="Z84" s="39"/>
+      <c r="AA84" s="39"/>
+      <c r="AB84" s="39"/>
+      <c r="AC84" s="39"/>
+      <c r="AD84" s="39"/>
+      <c r="AE84" s="39"/>
+      <c r="AF84" s="39"/>
+      <c r="AG84" s="39"/>
+      <c r="AH84" s="39"/>
     </row>
     <row r="85" spans="2:34">
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="37" t="s">
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="43" t="s">
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M85" s="43"/>
-      <c r="N85" s="43"/>
-      <c r="O85" s="43"/>
-      <c r="P85" s="43"/>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="10"/>
-      <c r="S85" s="33"/>
-      <c r="T85" s="33"/>
-      <c r="U85" s="51" t="s">
+      <c r="M85" s="50"/>
+      <c r="N85" s="50"/>
+      <c r="O85" s="50"/>
+      <c r="P85" s="50"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="39"/>
+      <c r="T85" s="39"/>
+      <c r="U85" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="V85" s="51"/>
-      <c r="W85" s="51"/>
-      <c r="X85" s="51"/>
-      <c r="Y85" s="33"/>
-      <c r="Z85" s="33"/>
-      <c r="AA85" s="56" t="s">
+      <c r="V85" s="58"/>
+      <c r="W85" s="58"/>
+      <c r="X85" s="58"/>
+      <c r="Y85" s="39"/>
+      <c r="Z85" s="39"/>
+      <c r="AA85" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="AB85" s="56"/>
-      <c r="AC85" s="56"/>
-      <c r="AD85" s="56"/>
-      <c r="AE85" s="56"/>
-      <c r="AF85" s="56"/>
-      <c r="AG85" s="33"/>
-      <c r="AH85" s="33"/>
+      <c r="AB85" s="66"/>
+      <c r="AC85" s="66"/>
+      <c r="AD85" s="66"/>
+      <c r="AE85" s="66"/>
+      <c r="AF85" s="66"/>
+      <c r="AG85" s="39"/>
+      <c r="AH85" s="39"/>
     </row>
     <row r="86" spans="2:34">
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="45"/>
-      <c r="N86" s="45"/>
-      <c r="O86" s="45"/>
-      <c r="P86" s="45"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
-      <c r="S86" s="33"/>
-      <c r="T86" s="33"/>
-      <c r="U86" s="52"/>
-      <c r="V86" s="53"/>
-      <c r="W86" s="53"/>
-      <c r="X86" s="53"/>
-      <c r="Y86" s="33"/>
-      <c r="Z86" s="33"/>
-      <c r="AA86" s="57"/>
-      <c r="AB86" s="58"/>
-      <c r="AC86" s="58"/>
-      <c r="AD86" s="58"/>
-      <c r="AE86" s="58"/>
-      <c r="AF86" s="58"/>
-      <c r="AG86" s="33"/>
-      <c r="AH86" s="33"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="51"/>
+      <c r="M86" s="52"/>
+      <c r="N86" s="52"/>
+      <c r="O86" s="52"/>
+      <c r="P86" s="52"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="39"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="59"/>
+      <c r="V86" s="60"/>
+      <c r="W86" s="60"/>
+      <c r="X86" s="60"/>
+      <c r="Y86" s="39"/>
+      <c r="Z86" s="39"/>
+      <c r="AA86" s="67"/>
+      <c r="AB86" s="68"/>
+      <c r="AC86" s="68"/>
+      <c r="AD86" s="68"/>
+      <c r="AE86" s="68"/>
+      <c r="AF86" s="68"/>
+      <c r="AG86" s="39"/>
+      <c r="AH86" s="39"/>
     </row>
     <row r="87" spans="2:34">
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="39" t="s">
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="39" t="s">
+      <c r="E87" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="39" t="s">
+      <c r="F87" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G87" s="39" t="s">
+      <c r="G87" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H87" s="39" t="s">
+      <c r="H87" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I87" s="39" t="s">
+      <c r="I87" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="46" t="s">
+      <c r="J87" s="39"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="M87" s="47" t="s">
+      <c r="M87" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="N87" s="47" t="s">
+      <c r="N87" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="O87" s="47" t="s">
+      <c r="O87" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="P87" s="47" t="s">
+      <c r="P87" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="Q87" s="14" t="s">
+      <c r="Q87" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="R87" s="14" t="s">
+      <c r="R87" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="S87" s="33"/>
-      <c r="T87" s="33"/>
-      <c r="U87" s="54" t="s">
+      <c r="S87" s="39"/>
+      <c r="T87" s="39"/>
+      <c r="U87" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="V87" s="55" t="s">
+      <c r="V87" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="W87" s="55" t="s">
+      <c r="W87" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="X87" s="55" t="s">
+      <c r="X87" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="Y87" s="33"/>
-      <c r="Z87" s="33"/>
-      <c r="AA87" s="59" t="s">
+      <c r="Y87" s="39"/>
+      <c r="Z87" s="39"/>
+      <c r="AA87" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="AB87" s="60" t="s">
+      <c r="AB87" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="AC87" s="60" t="s">
+      <c r="AC87" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="AD87" s="60" t="s">
+      <c r="AD87" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="AE87" s="60" t="s">
+      <c r="AE87" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AF87" s="60" t="s">
+      <c r="AF87" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="AG87" s="33"/>
-      <c r="AH87" s="33"/>
+      <c r="AG87" s="39"/>
+      <c r="AH87" s="39"/>
     </row>
     <row r="88" spans="2:34">
-      <c r="B88" s="33"/>
-      <c r="C88" s="40" t="s">
+      <c r="B88" s="39"/>
+      <c r="C88" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D88" s="34" t="s">
+      <c r="D88" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E88" s="34" t="s">
+      <c r="E88" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F88" s="35">
+      <c r="F88" s="41">
         <v>45705.5416666667</v>
       </c>
-      <c r="G88" s="41">
+      <c r="G88" s="48">
         <v>45705.8333333333</v>
       </c>
-      <c r="H88" s="34" t="str">
+      <c r="H88" s="40" t="str">
         <f>AF91</f>
         <v>102</v>
       </c>
-      <c r="I88" s="35">
+      <c r="I88" s="41">
         <f>P92</f>
         <v>45705.7916666667</v>
       </c>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="34" t="s">
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="M88" s="34" t="str">
+      <c r="M88" s="40" t="str">
         <f>D88</f>
         <v>A00001</v>
       </c>
-      <c r="N88" s="34" t="s">
+      <c r="N88" s="40" t="s">
         <v>34</v>
       </c>
       <c r="O88" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="P88" s="35">
+      <c r="P88" s="41">
         <v>45705.5416666667</v>
       </c>
-      <c r="Q88" s="34" t="s">
+      <c r="Q88" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="R88" s="49" t="s">
+      <c r="R88" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="S88" s="33"/>
-      <c r="T88" s="33"/>
-      <c r="U88" s="34" t="s">
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="V88" s="34" t="str">
+      <c r="V88" s="40" t="str">
         <f t="shared" ref="V88:V90" si="0">L88</f>
         <v>B00001</v>
       </c>
-      <c r="W88" s="34" t="s">
+      <c r="W88" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="X88" s="49" t="s">
+      <c r="X88" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="Y88" s="33"/>
-      <c r="Z88" s="33"/>
-      <c r="AA88" s="33"/>
-      <c r="AB88" s="33"/>
-      <c r="AC88" s="33"/>
-      <c r="AD88" s="33"/>
-      <c r="AE88" s="33"/>
-      <c r="AF88" s="33"/>
-      <c r="AG88" s="33"/>
-      <c r="AH88" s="33"/>
+      <c r="Y88" s="39"/>
+      <c r="Z88" s="39"/>
+      <c r="AA88" s="39"/>
+      <c r="AB88" s="39"/>
+      <c r="AC88" s="39"/>
+      <c r="AD88" s="39"/>
+      <c r="AE88" s="39"/>
+      <c r="AF88" s="39"/>
+      <c r="AG88" s="39"/>
+      <c r="AH88" s="39"/>
     </row>
     <row r="89" spans="2:34">
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
-      <c r="L89" s="34" t="s">
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="M89" s="34" t="str">
+      <c r="M89" s="40" t="str">
         <f>D88</f>
         <v>A00001</v>
       </c>
-      <c r="N89" s="34" t="s">
+      <c r="N89" s="40" t="s">
         <v>40</v>
       </c>
       <c r="O89" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="P89" s="35">
+      <c r="P89" s="41">
         <v>45705.625</v>
       </c>
-      <c r="Q89" s="34" t="s">
+      <c r="Q89" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="R89" s="49" t="s">
+      <c r="R89" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="S89" s="33"/>
-      <c r="T89" s="33"/>
-      <c r="U89" s="34" t="s">
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="V89" s="34" t="str">
+      <c r="V89" s="40" t="str">
         <f t="shared" si="0"/>
         <v>B00002</v>
       </c>
-      <c r="W89" s="34" t="s">
+      <c r="W89" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="X89" s="49" t="s">
+      <c r="X89" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="Y89" s="33"/>
-      <c r="Z89" s="33"/>
-      <c r="AA89" s="33"/>
-      <c r="AB89" s="33"/>
-      <c r="AC89" s="33"/>
-      <c r="AD89" s="33"/>
-      <c r="AE89" s="33"/>
-      <c r="AF89" s="33"/>
-      <c r="AG89" s="33"/>
-      <c r="AH89" s="33"/>
+      <c r="Y89" s="39"/>
+      <c r="Z89" s="39"/>
+      <c r="AA89" s="39"/>
+      <c r="AB89" s="39"/>
+      <c r="AC89" s="39"/>
+      <c r="AD89" s="39"/>
+      <c r="AE89" s="39"/>
+      <c r="AF89" s="39"/>
+      <c r="AG89" s="39"/>
+      <c r="AH89" s="39"/>
     </row>
     <row r="90" spans="2:34">
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="34" t="s">
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="M90" s="34" t="str">
+      <c r="M90" s="40" t="str">
         <f>D88</f>
         <v>A00001</v>
       </c>
-      <c r="N90" s="34" t="s">
+      <c r="N90" s="40" t="s">
         <v>40</v>
       </c>
       <c r="O90" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="P90" s="35">
+      <c r="P90" s="41">
         <v>45705.7083333333</v>
       </c>
-      <c r="Q90" s="34" t="s">
+      <c r="Q90" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="R90" s="49" t="s">
+      <c r="R90" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="S90" s="33"/>
-      <c r="T90" s="33"/>
-      <c r="U90" s="34" t="s">
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="V90" s="34" t="str">
+      <c r="V90" s="40" t="str">
         <f t="shared" si="0"/>
         <v>B00003</v>
       </c>
-      <c r="W90" s="34" t="s">
+      <c r="W90" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="X90" s="49" t="s">
+      <c r="X90" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="Y90" s="33"/>
-      <c r="Z90" s="33"/>
-      <c r="AA90" s="33"/>
-      <c r="AB90" s="33"/>
-      <c r="AC90" s="33"/>
-      <c r="AD90" s="33"/>
-      <c r="AE90" s="33"/>
-      <c r="AF90" s="33"/>
-      <c r="AG90" s="33"/>
-      <c r="AH90" s="33"/>
+      <c r="Y90" s="39"/>
+      <c r="Z90" s="39"/>
+      <c r="AA90" s="39"/>
+      <c r="AB90" s="39"/>
+      <c r="AC90" s="39"/>
+      <c r="AD90" s="39"/>
+      <c r="AE90" s="39"/>
+      <c r="AF90" s="39"/>
+      <c r="AG90" s="39"/>
+      <c r="AH90" s="39"/>
     </row>
     <row r="91" spans="2:34">
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="33"/>
-      <c r="L91" s="34" t="s">
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="M91" s="34" t="str">
+      <c r="M91" s="40" t="str">
         <f>D88</f>
         <v>A00001</v>
       </c>
-      <c r="N91" s="34" t="s">
+      <c r="N91" s="40" t="s">
         <v>47</v>
       </c>
       <c r="O91" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="P91" s="35">
+      <c r="P91" s="41">
         <v>45705.7291666667</v>
       </c>
-      <c r="Q91" s="34" t="s">
+      <c r="Q91" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="R91" s="49" t="s">
+      <c r="R91" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="S91" s="33"/>
-      <c r="T91" s="33"/>
-      <c r="U91" s="33"/>
-      <c r="V91" s="33"/>
-      <c r="W91" s="33"/>
-      <c r="X91" s="33"/>
-      <c r="Y91" s="33"/>
-      <c r="Z91" s="33"/>
-      <c r="AA91" s="34" t="s">
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="39"/>
+      <c r="Y91" s="39"/>
+      <c r="Z91" s="39"/>
+      <c r="AA91" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="AB91" s="34" t="str">
+      <c r="AB91" s="40" t="str">
         <f>L91</f>
         <v>B00004</v>
       </c>
-      <c r="AC91" s="34" t="s">
+      <c r="AC91" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AD91" s="35" t="s">
+      <c r="AD91" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AE91" s="34" t="s">
+      <c r="AE91" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AF91" s="49" t="s">
+      <c r="AF91" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="AG91" s="33"/>
-      <c r="AH91" s="33"/>
+      <c r="AG91" s="39"/>
+      <c r="AH91" s="39"/>
     </row>
     <row r="92" spans="2:34">
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
-      <c r="L92" s="34" t="s">
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="M92" s="34" t="str">
+      <c r="M92" s="40" t="str">
         <f>D88</f>
         <v>A00001</v>
       </c>
-      <c r="N92" s="34" t="s">
+      <c r="N92" s="40" t="s">
         <v>40</v>
       </c>
       <c r="O92" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="P92" s="35">
+      <c r="P92" s="41">
         <v>45705.7916666667</v>
       </c>
-      <c r="Q92" s="34" t="s">
+      <c r="Q92" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="R92" s="49" t="s">
+      <c r="R92" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="S92" s="33"/>
-      <c r="T92" s="33"/>
-      <c r="U92" s="34" t="s">
+      <c r="S92" s="39"/>
+      <c r="T92" s="39"/>
+      <c r="U92" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="V92" s="34" t="str">
+      <c r="V92" s="40" t="str">
         <f>L92</f>
         <v>B00005</v>
       </c>
-      <c r="W92" s="34" t="s">
+      <c r="W92" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="X92" s="49" t="s">
+      <c r="X92" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="Y92" s="33"/>
-      <c r="Z92" s="33"/>
-      <c r="AA92" s="33"/>
-      <c r="AB92" s="33"/>
-      <c r="AC92" s="33"/>
-      <c r="AD92" s="33"/>
-      <c r="AE92" s="33"/>
-      <c r="AF92" s="33"/>
-      <c r="AG92" s="33"/>
-      <c r="AH92" s="33"/>
+      <c r="Y92" s="39"/>
+      <c r="Z92" s="39"/>
+      <c r="AA92" s="39"/>
+      <c r="AB92" s="39"/>
+      <c r="AC92" s="39"/>
+      <c r="AD92" s="39"/>
+      <c r="AE92" s="39"/>
+      <c r="AF92" s="39"/>
+      <c r="AG92" s="39"/>
+      <c r="AH92" s="39"/>
     </row>
     <row r="93" spans="2:34">
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
-      <c r="J93" s="33"/>
-      <c r="K93" s="40" t="s">
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L93" s="34" t="s">
+      <c r="L93" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="M93" s="34" t="str">
+      <c r="M93" s="40" t="str">
         <f>D88</f>
         <v>A00001</v>
       </c>
-      <c r="N93" s="48" t="s">
+      <c r="N93" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="O93" s="34" t="s">
+      <c r="O93" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="P93" s="35">
+      <c r="P93" s="41">
         <v>45705.8333333333</v>
       </c>
-      <c r="Q93" s="8"/>
-      <c r="R93" s="8"/>
-      <c r="S93" s="33"/>
-      <c r="T93" s="33"/>
-      <c r="U93" s="33"/>
-      <c r="V93" s="33"/>
-      <c r="W93" s="33"/>
-      <c r="X93" s="33"/>
-      <c r="Y93" s="33"/>
-      <c r="Z93" s="33"/>
-      <c r="AA93" s="33"/>
-      <c r="AB93" s="33"/>
-      <c r="AC93" s="33"/>
-      <c r="AD93" s="33"/>
-      <c r="AE93" s="33"/>
-      <c r="AF93" s="33"/>
-      <c r="AG93" s="33"/>
-      <c r="AH93" s="33"/>
+      <c r="Q93" s="65"/>
+      <c r="R93" s="65"/>
+      <c r="S93" s="39"/>
+      <c r="T93" s="39"/>
+      <c r="U93" s="39"/>
+      <c r="V93" s="39"/>
+      <c r="W93" s="39"/>
+      <c r="X93" s="39"/>
+      <c r="Y93" s="39"/>
+      <c r="Z93" s="39"/>
+      <c r="AA93" s="39"/>
+      <c r="AB93" s="39"/>
+      <c r="AC93" s="39"/>
+      <c r="AD93" s="39"/>
+      <c r="AE93" s="39"/>
+      <c r="AF93" s="39"/>
+      <c r="AG93" s="39"/>
+      <c r="AH93" s="39"/>
     </row>
     <row r="94" spans="2:34">
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="33"/>
-      <c r="L94" s="33"/>
-      <c r="M94" s="33"/>
-      <c r="N94" s="33"/>
-      <c r="O94" s="33"/>
-      <c r="P94" s="33"/>
-      <c r="Q94" s="50"/>
-      <c r="R94" s="50"/>
-      <c r="S94" s="33"/>
-      <c r="T94" s="33"/>
-      <c r="U94" s="33"/>
-      <c r="V94" s="33"/>
-      <c r="W94" s="33"/>
-      <c r="X94" s="33"/>
-      <c r="Y94" s="33"/>
-      <c r="Z94" s="33"/>
-      <c r="AA94" s="33"/>
-      <c r="AB94" s="33"/>
-      <c r="AC94" s="33"/>
-      <c r="AD94" s="33"/>
-      <c r="AE94" s="33"/>
-      <c r="AF94" s="33"/>
-      <c r="AG94" s="33"/>
-      <c r="AH94" s="33"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39"/>
+      <c r="M94" s="39"/>
+      <c r="N94" s="39"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="57"/>
+      <c r="R94" s="57"/>
+      <c r="S94" s="39"/>
+      <c r="T94" s="39"/>
+      <c r="U94" s="39"/>
+      <c r="V94" s="39"/>
+      <c r="W94" s="39"/>
+      <c r="X94" s="39"/>
+      <c r="Y94" s="39"/>
+      <c r="Z94" s="39"/>
+      <c r="AA94" s="39"/>
+      <c r="AB94" s="39"/>
+      <c r="AC94" s="39"/>
+      <c r="AD94" s="39"/>
+      <c r="AE94" s="39"/>
+      <c r="AF94" s="39"/>
+      <c r="AG94" s="39"/>
+      <c r="AH94" s="39"/>
     </row>
     <row r="95" spans="2:34">
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="33"/>
-      <c r="L95" s="33"/>
-      <c r="M95" s="33"/>
-      <c r="N95" s="33"/>
-      <c r="O95" s="33"/>
-      <c r="P95" s="33"/>
-      <c r="Q95" s="50"/>
-      <c r="R95" s="50"/>
-      <c r="S95" s="33"/>
-      <c r="T95" s="33"/>
-      <c r="U95" s="33"/>
-      <c r="V95" s="33"/>
-      <c r="W95" s="33"/>
-      <c r="X95" s="33"/>
-      <c r="Y95" s="33"/>
-      <c r="Z95" s="33"/>
-      <c r="AA95" s="33"/>
-      <c r="AB95" s="33"/>
-      <c r="AC95" s="33"/>
-      <c r="AD95" s="33"/>
-      <c r="AE95" s="33"/>
-      <c r="AF95" s="33"/>
-      <c r="AG95" s="33"/>
-      <c r="AH95" s="33"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="39"/>
+      <c r="M95" s="39"/>
+      <c r="N95" s="39"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="57"/>
+      <c r="R95" s="57"/>
+      <c r="S95" s="39"/>
+      <c r="T95" s="39"/>
+      <c r="U95" s="39"/>
+      <c r="V95" s="39"/>
+      <c r="W95" s="39"/>
+      <c r="X95" s="39"/>
+      <c r="Y95" s="39"/>
+      <c r="Z95" s="39"/>
+      <c r="AA95" s="39"/>
+      <c r="AB95" s="39"/>
+      <c r="AC95" s="39"/>
+      <c r="AD95" s="39"/>
+      <c r="AE95" s="39"/>
+      <c r="AF95" s="39"/>
+      <c r="AG95" s="39"/>
+      <c r="AH95" s="39"/>
     </row>
     <row r="96" spans="2:34">
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="33"/>
-      <c r="K96" s="33"/>
-      <c r="L96" s="33"/>
-      <c r="M96" s="33"/>
-      <c r="N96" s="33"/>
-      <c r="O96" s="33"/>
-      <c r="P96" s="33"/>
-      <c r="Q96" s="50"/>
-      <c r="R96" s="50"/>
-      <c r="S96" s="33"/>
-      <c r="T96" s="33"/>
-      <c r="U96" s="33"/>
-      <c r="V96" s="33"/>
-      <c r="W96" s="33"/>
-      <c r="X96" s="33"/>
-      <c r="Y96" s="33"/>
-      <c r="Z96" s="33"/>
-      <c r="AA96" s="33"/>
-      <c r="AB96" s="33"/>
-      <c r="AC96" s="33"/>
-      <c r="AD96" s="33"/>
-      <c r="AE96" s="33"/>
-      <c r="AF96" s="33"/>
-      <c r="AG96" s="33"/>
-      <c r="AH96" s="33"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="39"/>
+      <c r="L96" s="39"/>
+      <c r="M96" s="39"/>
+      <c r="N96" s="39"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="57"/>
+      <c r="R96" s="57"/>
+      <c r="S96" s="39"/>
+      <c r="T96" s="39"/>
+      <c r="U96" s="39"/>
+      <c r="V96" s="39"/>
+      <c r="W96" s="39"/>
+      <c r="X96" s="39"/>
+      <c r="Y96" s="39"/>
+      <c r="Z96" s="39"/>
+      <c r="AA96" s="39"/>
+      <c r="AB96" s="39"/>
+      <c r="AC96" s="39"/>
+      <c r="AD96" s="39"/>
+      <c r="AE96" s="39"/>
+      <c r="AF96" s="39"/>
+      <c r="AG96" s="39"/>
+      <c r="AH96" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
